--- a/out/CE/FigA_26.xlsx
+++ b/out/CE/FigA_26.xlsx
@@ -382,133 +382,3367 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7DF10D9E-3FE2-4C3D-9AD0-FB0ECE1E6F17}">
-  <dimension ref="A1:C11"/>
+  <dimension ref="A1:CW11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:C11"/>
+      <selection sqref="A1:CW11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:101" x14ac:dyDescent="0.25">
       <c r="A1">
+        <v>0.89129999999999998</v>
+      </c>
+      <c r="B1">
+        <v>0.90742</v>
+      </c>
+      <c r="C1">
+        <v>0.8982</v>
+      </c>
+      <c r="D1">
+        <v>0.90613999999999995</v>
+      </c>
+      <c r="E1">
+        <v>0.90436000000000005</v>
+      </c>
+      <c r="F1">
+        <v>0.91974</v>
+      </c>
+      <c r="G1">
+        <v>0.89895999999999998</v>
+      </c>
+      <c r="H1">
+        <v>0.89536000000000004</v>
+      </c>
+      <c r="I1">
+        <v>0.90244000000000002</v>
+      </c>
+      <c r="J1">
+        <v>0.90529999999999999</v>
+      </c>
+      <c r="K1">
+        <v>0.90602000000000005</v>
+      </c>
+      <c r="L1">
+        <v>0.90339999999999998</v>
+      </c>
+      <c r="M1">
+        <v>0.89224000000000003</v>
+      </c>
+      <c r="N1">
+        <v>0.89693999999999996</v>
+      </c>
+      <c r="O1">
+        <v>0.89415999999999995</v>
+      </c>
+      <c r="P1">
+        <v>0.90788000000000002</v>
+      </c>
+      <c r="Q1">
+        <v>0.90278000000000003</v>
+      </c>
+      <c r="R1">
+        <v>0.89032</v>
+      </c>
+      <c r="S1">
+        <v>0.90407999999999999</v>
+      </c>
+      <c r="T1">
+        <v>0.89807999999999999</v>
+      </c>
+      <c r="U1">
+        <v>0.90225999999999995</v>
+      </c>
+      <c r="V1">
+        <v>0.91632000000000002</v>
+      </c>
+      <c r="W1">
+        <v>0.90512000000000004</v>
+      </c>
+      <c r="X1">
+        <v>0.89805999999999997</v>
+      </c>
+      <c r="Y1">
+        <v>0.89780000000000004</v>
+      </c>
+      <c r="Z1">
+        <v>0.90454000000000001</v>
+      </c>
+      <c r="AA1">
+        <v>0.90668000000000004</v>
+      </c>
+      <c r="AB1">
+        <v>0.90825999999999996</v>
+      </c>
+      <c r="AC1">
+        <v>0.89536000000000004</v>
+      </c>
+      <c r="AD1">
+        <v>0.88229999999999997</v>
+      </c>
+      <c r="AE1">
+        <v>0.88371999999999995</v>
+      </c>
+      <c r="AF1">
+        <v>0.91147999999999996</v>
+      </c>
+      <c r="AG1">
+        <v>0.87887999999999999</v>
+      </c>
+      <c r="AH1">
+        <v>0.89583999999999997</v>
+      </c>
+      <c r="AI1">
+        <v>0.90127999999999997</v>
+      </c>
+      <c r="AJ1">
+        <v>0.88380000000000003</v>
+      </c>
+      <c r="AK1">
+        <v>0.91612000000000005</v>
+      </c>
+      <c r="AL1">
+        <v>0.89349999999999996</v>
+      </c>
+      <c r="AM1">
+        <v>0.91368000000000005</v>
+      </c>
+      <c r="AN1">
+        <v>0.90549999999999997</v>
+      </c>
+      <c r="AO1">
+        <v>0.88395999999999997</v>
+      </c>
+      <c r="AP1">
+        <v>0.90781999999999996</v>
+      </c>
+      <c r="AQ1">
+        <v>0.90027999999999997</v>
+      </c>
+      <c r="AR1">
+        <v>0.89348000000000005</v>
+      </c>
+      <c r="AS1">
+        <v>0.90942000000000001</v>
+      </c>
+      <c r="AT1">
+        <v>0.90058000000000005</v>
+      </c>
+      <c r="AU1">
+        <v>0.89312000000000002</v>
+      </c>
+      <c r="AV1">
+        <v>0.90147999999999995</v>
+      </c>
+      <c r="AW1">
+        <v>0.91039999999999999</v>
+      </c>
+      <c r="AX1">
+        <v>0.90051999999999999</v>
+      </c>
+      <c r="AY1">
+        <v>0.90295999999999998</v>
+      </c>
+      <c r="AZ1">
+        <v>0.91761999999999999</v>
+      </c>
+      <c r="BA1">
+        <v>0.87948000000000004</v>
+      </c>
+      <c r="BB1">
+        <v>0.89959999999999996</v>
+      </c>
+      <c r="BC1">
+        <v>0.90529999999999999</v>
+      </c>
+      <c r="BD1">
+        <v>0.90605999999999998</v>
+      </c>
+      <c r="BE1">
+        <v>0.90378000000000003</v>
+      </c>
+      <c r="BF1">
+        <v>0.90854000000000001</v>
+      </c>
+      <c r="BG1">
+        <v>0.89970000000000006</v>
+      </c>
+      <c r="BH1">
+        <v>0.92171999999999998</v>
+      </c>
+      <c r="BI1">
+        <v>0.88722000000000001</v>
+      </c>
+      <c r="BJ1">
+        <v>0.88824000000000003</v>
+      </c>
+      <c r="BK1">
+        <v>0.89936000000000005</v>
+      </c>
+      <c r="BL1">
+        <v>0.88858000000000004</v>
+      </c>
+      <c r="BM1">
+        <v>0.89258000000000004</v>
+      </c>
+      <c r="BN1">
+        <v>0.90061999999999998</v>
+      </c>
+      <c r="BO1">
+        <v>0.90151999999999999</v>
+      </c>
+      <c r="BP1">
+        <v>0.88224000000000002</v>
+      </c>
+      <c r="BQ1">
+        <v>0.88693999999999995</v>
+      </c>
+      <c r="BR1">
+        <v>0.89229999999999998</v>
+      </c>
+      <c r="BS1">
+        <v>0.90278000000000003</v>
+      </c>
+      <c r="BT1">
+        <v>0.86729999999999996</v>
+      </c>
+      <c r="BU1">
+        <v>0.88070000000000004</v>
+      </c>
+      <c r="BV1">
+        <v>0.88800000000000001</v>
+      </c>
+      <c r="BW1">
+        <v>0.89554</v>
+      </c>
+      <c r="BX1">
+        <v>0.91125999999999996</v>
+      </c>
+      <c r="BY1">
+        <v>0.91200000000000003</v>
+      </c>
+      <c r="BZ1">
+        <v>0.90403999999999995</v>
+      </c>
+      <c r="CA1">
+        <v>0.90395999999999999</v>
+      </c>
+      <c r="CB1">
+        <v>0.90154000000000001</v>
+      </c>
+      <c r="CC1">
+        <v>0.90286</v>
+      </c>
+      <c r="CD1">
+        <v>0.90227999999999997</v>
+      </c>
+      <c r="CE1">
+        <v>0.88205999999999996</v>
+      </c>
+      <c r="CF1">
+        <v>0.8931</v>
+      </c>
+      <c r="CG1">
+        <v>0.91034000000000004</v>
+      </c>
+      <c r="CH1">
+        <v>0.91113999999999995</v>
+      </c>
+      <c r="CI1">
+        <v>0.89022000000000001</v>
+      </c>
+      <c r="CJ1">
+        <v>0.89641999999999999</v>
+      </c>
+      <c r="CK1">
+        <v>0.91098000000000001</v>
+      </c>
+      <c r="CL1">
+        <v>0.89507999999999999</v>
+      </c>
+      <c r="CM1">
+        <v>0.90958000000000006</v>
+      </c>
+      <c r="CN1">
+        <v>0.87505999999999995</v>
+      </c>
+      <c r="CO1">
+        <v>0.91069999999999995</v>
+      </c>
+      <c r="CP1">
+        <v>0.88748000000000005</v>
+      </c>
+      <c r="CQ1">
+        <v>0.91064000000000001</v>
+      </c>
+      <c r="CR1">
+        <v>0.89119999999999999</v>
+      </c>
+      <c r="CS1">
+        <v>0.88482000000000005</v>
+      </c>
+      <c r="CT1">
+        <v>0.88771999999999995</v>
+      </c>
+      <c r="CU1">
+        <v>0.88378000000000001</v>
+      </c>
+      <c r="CV1">
+        <v>0.90261999999999998</v>
+      </c>
+      <c r="CW1">
+        <v>0.89896240000000038</v>
+      </c>
+    </row>
+    <row r="2" spans="1:101" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>0.90214000000000005</v>
+      </c>
+      <c r="B2">
+        <v>0.91356000000000004</v>
+      </c>
+      <c r="C2">
+        <v>0.90488000000000002</v>
+      </c>
+      <c r="D2">
+        <v>0.88983999999999996</v>
+      </c>
+      <c r="E2">
+        <v>0.89034000000000002</v>
+      </c>
+      <c r="F2">
+        <v>0.92005999999999999</v>
+      </c>
+      <c r="G2">
+        <v>0.90107999999999999</v>
+      </c>
+      <c r="H2">
+        <v>0.89471999999999996</v>
+      </c>
+      <c r="I2">
+        <v>0.8901</v>
+      </c>
+      <c r="J2">
+        <v>0.89232</v>
+      </c>
+      <c r="K2">
+        <v>0.9093</v>
+      </c>
+      <c r="L2">
+        <v>0.90522000000000002</v>
+      </c>
+      <c r="M2">
+        <v>0.90351999999999999</v>
+      </c>
+      <c r="N2">
+        <v>0.91139999999999999</v>
+      </c>
+      <c r="O2">
+        <v>0.91601999999999995</v>
+      </c>
+      <c r="P2">
+        <v>0.89661999999999997</v>
+      </c>
+      <c r="Q2">
+        <v>0.89058000000000004</v>
+      </c>
+      <c r="R2">
+        <v>0.89366000000000001</v>
+      </c>
+      <c r="S2">
+        <v>0.92332000000000003</v>
+      </c>
+      <c r="T2">
+        <v>0.90054000000000001</v>
+      </c>
+      <c r="U2">
+        <v>0.90478000000000003</v>
+      </c>
+      <c r="V2">
+        <v>0.89481999999999995</v>
+      </c>
+      <c r="W2">
+        <v>0.90500000000000003</v>
+      </c>
+      <c r="X2">
+        <v>0.88541999999999998</v>
+      </c>
+      <c r="Y2">
+        <v>0.90212000000000003</v>
+      </c>
+      <c r="Z2">
+        <v>0.89373999999999998</v>
+      </c>
+      <c r="AA2">
+        <v>0.91612000000000005</v>
+      </c>
+      <c r="AB2">
+        <v>0.87958000000000003</v>
+      </c>
+      <c r="AC2">
+        <v>0.91178000000000003</v>
+      </c>
+      <c r="AD2">
+        <v>0.90232000000000001</v>
+      </c>
+      <c r="AE2">
+        <v>0.88834000000000002</v>
+      </c>
+      <c r="AF2">
+        <v>0.90478000000000003</v>
+      </c>
+      <c r="AG2">
+        <v>0.90214000000000005</v>
+      </c>
+      <c r="AH2">
+        <v>0.89932000000000001</v>
+      </c>
+      <c r="AI2">
+        <v>0.87287999999999999</v>
+      </c>
+      <c r="AJ2">
+        <v>0.91264000000000001</v>
+      </c>
+      <c r="AK2">
+        <v>0.88773999999999997</v>
+      </c>
+      <c r="AL2">
+        <v>0.90805999999999998</v>
+      </c>
+      <c r="AM2">
+        <v>0.91142000000000001</v>
+      </c>
+      <c r="AN2">
+        <v>0.90439999999999998</v>
+      </c>
+      <c r="AO2">
+        <v>0.90598000000000001</v>
+      </c>
+      <c r="AP2">
+        <v>0.88822000000000001</v>
+      </c>
+      <c r="AQ2">
+        <v>0.90558000000000005</v>
+      </c>
+      <c r="AR2">
+        <v>0.89603999999999995</v>
+      </c>
+      <c r="AS2">
+        <v>0.91646000000000005</v>
+      </c>
+      <c r="AT2">
+        <v>0.91356000000000004</v>
+      </c>
+      <c r="AU2">
+        <v>0.88900000000000001</v>
+      </c>
+      <c r="AV2">
+        <v>0.90347999999999995</v>
+      </c>
+      <c r="AW2">
+        <v>0.90425999999999995</v>
+      </c>
+      <c r="AX2">
+        <v>0.88866000000000001</v>
+      </c>
+      <c r="AY2">
+        <v>0.91371999999999998</v>
+      </c>
+      <c r="AZ2">
+        <v>0.90886</v>
+      </c>
+      <c r="BA2">
+        <v>0.90883999999999998</v>
+      </c>
+      <c r="BB2">
+        <v>0.90032000000000001</v>
+      </c>
+      <c r="BC2">
+        <v>0.91281999999999996</v>
+      </c>
+      <c r="BD2">
+        <v>0.90139999999999998</v>
+      </c>
+      <c r="BE2">
+        <v>0.89180000000000004</v>
+      </c>
+      <c r="BF2">
+        <v>0.90747999999999995</v>
+      </c>
+      <c r="BG2">
+        <v>0.90256000000000003</v>
+      </c>
+      <c r="BH2">
+        <v>0.91102000000000005</v>
+      </c>
+      <c r="BI2">
+        <v>0.8992</v>
+      </c>
+      <c r="BJ2">
+        <v>0.89959999999999996</v>
+      </c>
+      <c r="BK2">
+        <v>0.90725999999999996</v>
+      </c>
+      <c r="BL2">
+        <v>0.90161999999999998</v>
+      </c>
+      <c r="BM2">
+        <v>0.90776000000000001</v>
+      </c>
+      <c r="BN2">
+        <v>0.91327999999999998</v>
+      </c>
+      <c r="BO2">
+        <v>0.89158000000000004</v>
+      </c>
+      <c r="BP2">
+        <v>0.91974</v>
+      </c>
+      <c r="BQ2">
+        <v>0.90880000000000005</v>
+      </c>
+      <c r="BR2">
+        <v>0.89937999999999996</v>
+      </c>
+      <c r="BS2">
+        <v>0.90798000000000001</v>
+      </c>
+      <c r="BT2">
+        <v>0.90310000000000001</v>
+      </c>
+      <c r="BU2">
+        <v>0.90273999999999999</v>
+      </c>
+      <c r="BV2">
+        <v>0.89371999999999996</v>
+      </c>
+      <c r="BW2">
+        <v>0.89970000000000006</v>
+      </c>
+      <c r="BX2">
+        <v>0.89648000000000005</v>
+      </c>
+      <c r="BY2">
+        <v>0.90205999999999997</v>
+      </c>
+      <c r="BZ2">
+        <v>0.89478000000000002</v>
+      </c>
+      <c r="CA2">
+        <v>0.87860000000000005</v>
+      </c>
+      <c r="CB2">
+        <v>0.89456000000000002</v>
+      </c>
+      <c r="CC2">
+        <v>0.91439999999999999</v>
+      </c>
+      <c r="CD2">
+        <v>0.90468000000000004</v>
+      </c>
+      <c r="CE2">
+        <v>0.89732000000000001</v>
+      </c>
+      <c r="CF2">
+        <v>0.89312000000000002</v>
+      </c>
+      <c r="CG2">
+        <v>0.90295999999999998</v>
+      </c>
+      <c r="CH2">
+        <v>0.90639999999999998</v>
+      </c>
+      <c r="CI2">
+        <v>0.91427999999999998</v>
+      </c>
+      <c r="CJ2">
+        <v>0.90515999999999996</v>
+      </c>
+      <c r="CK2">
+        <v>0.89837999999999996</v>
+      </c>
+      <c r="CL2">
+        <v>0.90136000000000005</v>
+      </c>
+      <c r="CM2">
+        <v>0.91198000000000001</v>
+      </c>
+      <c r="CN2">
+        <v>0.90695999999999999</v>
+      </c>
+      <c r="CO2">
+        <v>0.89454</v>
+      </c>
+      <c r="CP2">
+        <v>0.90590000000000004</v>
+      </c>
+      <c r="CQ2">
+        <v>0.89781999999999995</v>
+      </c>
+      <c r="CR2">
+        <v>0.89295999999999998</v>
+      </c>
+      <c r="CS2">
+        <v>0.89663999999999999</v>
+      </c>
+      <c r="CT2">
+        <v>0.88360000000000005</v>
+      </c>
+      <c r="CU2">
+        <v>0.89971999999999996</v>
+      </c>
+      <c r="CV2">
+        <v>0.92305999999999999</v>
+      </c>
+      <c r="CW2">
+        <v>0.90179859999999989</v>
+      </c>
+    </row>
+    <row r="3" spans="1:101" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>0.91757999999999995</v>
+      </c>
+      <c r="B3">
+        <v>0.90495999999999999</v>
+      </c>
+      <c r="C3">
+        <v>0.89871999999999996</v>
+      </c>
+      <c r="D3">
+        <v>0.90115999999999996</v>
+      </c>
+      <c r="E3">
+        <v>0.88914000000000004</v>
+      </c>
+      <c r="F3">
+        <v>0.88907999999999998</v>
+      </c>
+      <c r="G3">
+        <v>0.91676000000000002</v>
+      </c>
+      <c r="H3">
+        <v>0.89312000000000002</v>
+      </c>
+      <c r="I3">
+        <v>0.89180000000000004</v>
+      </c>
+      <c r="J3">
+        <v>0.90568000000000004</v>
+      </c>
+      <c r="K3">
+        <v>0.90925999999999996</v>
+      </c>
+      <c r="L3">
+        <v>0.88871999999999995</v>
+      </c>
+      <c r="M3">
+        <v>0.88958000000000004</v>
+      </c>
+      <c r="N3">
+        <v>0.9052</v>
+      </c>
+      <c r="O3">
+        <v>0.90232000000000001</v>
+      </c>
+      <c r="P3">
+        <v>0.90181999999999995</v>
+      </c>
+      <c r="Q3">
+        <v>0.91152</v>
+      </c>
+      <c r="R3">
+        <v>0.876</v>
+      </c>
+      <c r="S3">
+        <v>0.88937999999999995</v>
+      </c>
+      <c r="T3">
+        <v>0.90083999999999997</v>
+      </c>
+      <c r="U3">
+        <v>0.89237999999999995</v>
+      </c>
+      <c r="V3">
+        <v>0.89319999999999999</v>
+      </c>
+      <c r="W3">
+        <v>0.91178000000000003</v>
+      </c>
+      <c r="X3">
+        <v>0.89173999999999998</v>
+      </c>
+      <c r="Y3">
+        <v>0.90449999999999997</v>
+      </c>
+      <c r="Z3">
+        <v>0.90151999999999999</v>
+      </c>
+      <c r="AA3">
+        <v>0.90783999999999998</v>
+      </c>
+      <c r="AB3">
+        <v>0.90678000000000003</v>
+      </c>
+      <c r="AC3">
+        <v>0.90558000000000005</v>
+      </c>
+      <c r="AD3">
+        <v>0.90280000000000005</v>
+      </c>
+      <c r="AE3">
+        <v>0.90878000000000003</v>
+      </c>
+      <c r="AF3">
+        <v>0.90400000000000003</v>
+      </c>
+      <c r="AG3">
+        <v>0.90746000000000004</v>
+      </c>
+      <c r="AH3">
+        <v>0.89964</v>
+      </c>
+      <c r="AI3">
+        <v>0.90725999999999996</v>
+      </c>
+      <c r="AJ3">
+        <v>0.87878000000000001</v>
+      </c>
+      <c r="AK3">
+        <v>0.90983999999999998</v>
+      </c>
+      <c r="AL3">
+        <v>0.89707999999999999</v>
+      </c>
+      <c r="AM3">
+        <v>0.90861999999999998</v>
+      </c>
+      <c r="AN3">
+        <v>0.90559999999999996</v>
+      </c>
+      <c r="AO3">
+        <v>0.90515999999999996</v>
+      </c>
+      <c r="AP3">
+        <v>0.91613999999999995</v>
+      </c>
+      <c r="AQ3">
+        <v>0.90425999999999995</v>
+      </c>
+      <c r="AR3">
+        <v>0.90071999999999997</v>
+      </c>
+      <c r="AS3">
+        <v>0.90258000000000005</v>
+      </c>
+      <c r="AT3">
+        <v>0.90451999999999999</v>
+      </c>
+      <c r="AU3">
+        <v>0.90281999999999996</v>
+      </c>
+      <c r="AV3">
+        <v>0.9093</v>
+      </c>
+      <c r="AW3">
+        <v>0.89407999999999999</v>
+      </c>
+      <c r="AX3">
+        <v>0.9032</v>
+      </c>
+      <c r="AY3">
+        <v>0.90051999999999999</v>
+      </c>
+      <c r="AZ3">
+        <v>0.91276000000000002</v>
+      </c>
+      <c r="BA3">
+        <v>0.90264</v>
+      </c>
+      <c r="BB3">
+        <v>0.90466000000000002</v>
+      </c>
+      <c r="BC3">
+        <v>0.91357999999999995</v>
+      </c>
+      <c r="BD3">
+        <v>0.89744000000000002</v>
+      </c>
+      <c r="BE3">
+        <v>0.88905999999999996</v>
+      </c>
+      <c r="BF3">
+        <v>0.89024000000000003</v>
+      </c>
+      <c r="BG3">
+        <v>0.89754</v>
+      </c>
+      <c r="BH3">
+        <v>0.91639999999999999</v>
+      </c>
+      <c r="BI3">
+        <v>0.90183999999999997</v>
+      </c>
+      <c r="BJ3">
+        <v>0.89573999999999998</v>
+      </c>
+      <c r="BK3">
+        <v>0.88890000000000002</v>
+      </c>
+      <c r="BL3">
+        <v>0.89639999999999997</v>
+      </c>
+      <c r="BM3">
+        <v>0.89668000000000003</v>
+      </c>
+      <c r="BN3">
+        <v>0.90164</v>
+      </c>
+      <c r="BO3">
+        <v>0.90666000000000002</v>
+      </c>
+      <c r="BP3">
+        <v>0.90702000000000005</v>
+      </c>
+      <c r="BQ3">
+        <v>0.90390000000000004</v>
+      </c>
+      <c r="BR3">
+        <v>0.91003999999999996</v>
+      </c>
+      <c r="BS3">
+        <v>0.88854</v>
+      </c>
+      <c r="BT3">
+        <v>0.90612000000000004</v>
+      </c>
+      <c r="BU3">
+        <v>0.89898</v>
+      </c>
+      <c r="BV3">
+        <v>0.89890000000000003</v>
+      </c>
+      <c r="BW3">
+        <v>0.90595999999999999</v>
+      </c>
+      <c r="BX3">
+        <v>0.89473999999999998</v>
+      </c>
+      <c r="BY3">
+        <v>0.88983999999999996</v>
+      </c>
+      <c r="BZ3">
+        <v>0.91232000000000002</v>
+      </c>
+      <c r="CA3">
+        <v>0.90449999999999997</v>
+      </c>
+      <c r="CB3">
+        <v>0.90327999999999997</v>
+      </c>
+      <c r="CC3">
+        <v>0.88793999999999995</v>
+      </c>
+      <c r="CD3">
+        <v>0.91202000000000005</v>
+      </c>
+      <c r="CE3">
+        <v>0.88604000000000005</v>
+      </c>
+      <c r="CF3">
+        <v>0.90634000000000003</v>
+      </c>
+      <c r="CG3">
+        <v>0.90978000000000003</v>
+      </c>
+      <c r="CH3">
+        <v>0.90147999999999995</v>
+      </c>
+      <c r="CI3">
+        <v>0.90771999999999997</v>
+      </c>
+      <c r="CJ3">
+        <v>0.90347999999999995</v>
+      </c>
+      <c r="CK3">
+        <v>0.91225999999999996</v>
+      </c>
+      <c r="CL3">
+        <v>0.8831</v>
+      </c>
+      <c r="CM3">
+        <v>0.8952</v>
+      </c>
+      <c r="CN3">
+        <v>0.90588000000000002</v>
+      </c>
+      <c r="CO3">
+        <v>0.90983999999999998</v>
+      </c>
+      <c r="CP3">
+        <v>0.90366000000000002</v>
+      </c>
+      <c r="CQ3">
+        <v>0.90583999999999998</v>
+      </c>
+      <c r="CR3">
+        <v>0.90673999999999999</v>
+      </c>
+      <c r="CS3">
+        <v>0.89847999999999995</v>
+      </c>
+      <c r="CT3">
+        <v>0.8901</v>
+      </c>
+      <c r="CU3">
+        <v>0.88044</v>
+      </c>
+      <c r="CV3">
+        <v>0.90551999999999999</v>
+      </c>
+      <c r="CW3">
+        <v>0.90119299999999991</v>
+      </c>
+    </row>
+    <row r="4" spans="1:101" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>0.91705999999999999</v>
+      </c>
+      <c r="B4">
+        <v>0.90566000000000002</v>
+      </c>
+      <c r="C4">
+        <v>0.90959999999999996</v>
+      </c>
+      <c r="D4">
+        <v>0.90905999999999998</v>
+      </c>
+      <c r="E4">
+        <v>0.89648000000000005</v>
+      </c>
+      <c r="F4">
+        <v>0.89602000000000004</v>
+      </c>
+      <c r="G4">
+        <v>0.89283999999999997</v>
+      </c>
+      <c r="H4">
+        <v>0.89998</v>
+      </c>
+      <c r="I4">
+        <v>0.89905999999999997</v>
+      </c>
+      <c r="J4">
+        <v>0.88673999999999997</v>
+      </c>
+      <c r="K4">
+        <v>0.89168000000000003</v>
+      </c>
+      <c r="L4">
+        <v>0.89249999999999996</v>
+      </c>
+      <c r="M4">
+        <v>0.8992</v>
+      </c>
+      <c r="N4">
+        <v>0.90064</v>
+      </c>
+      <c r="O4">
+        <v>0.90817999999999999</v>
+      </c>
+      <c r="P4">
+        <v>0.89983999999999997</v>
+      </c>
+      <c r="Q4">
+        <v>0.91644000000000003</v>
+      </c>
+      <c r="R4">
+        <v>0.90778000000000003</v>
+      </c>
+      <c r="S4">
+        <v>0.91335999999999995</v>
+      </c>
+      <c r="T4">
+        <v>0.89578000000000002</v>
+      </c>
+      <c r="U4">
+        <v>0.89188000000000001</v>
+      </c>
+      <c r="V4">
+        <v>0.89956000000000003</v>
+      </c>
+      <c r="W4">
+        <v>0.91627999999999998</v>
+      </c>
+      <c r="X4">
+        <v>0.91132000000000002</v>
+      </c>
+      <c r="Y4">
+        <v>0.88370000000000004</v>
+      </c>
+      <c r="Z4">
+        <v>0.89280000000000004</v>
+      </c>
+      <c r="AA4">
+        <v>0.90747999999999995</v>
+      </c>
+      <c r="AB4">
+        <v>0.88741999999999999</v>
+      </c>
+      <c r="AC4">
+        <v>0.90954000000000002</v>
+      </c>
+      <c r="AD4">
+        <v>0.90115999999999996</v>
+      </c>
+      <c r="AE4">
+        <v>0.91161999999999999</v>
+      </c>
+      <c r="AF4">
+        <v>0.89492000000000005</v>
+      </c>
+      <c r="AG4">
+        <v>0.91739999999999999</v>
+      </c>
+      <c r="AH4">
+        <v>0.89303999999999994</v>
+      </c>
+      <c r="AI4">
+        <v>0.90761999999999998</v>
+      </c>
+      <c r="AJ4">
+        <v>0.90693999999999997</v>
+      </c>
+      <c r="AK4">
+        <v>0.91052</v>
+      </c>
+      <c r="AL4">
+        <v>0.91291999999999995</v>
+      </c>
+      <c r="AM4">
+        <v>0.90298</v>
+      </c>
+      <c r="AN4">
+        <v>0.89800000000000002</v>
+      </c>
+      <c r="AO4">
+        <v>0.89525999999999994</v>
+      </c>
+      <c r="AP4">
+        <v>0.89756000000000002</v>
+      </c>
+      <c r="AQ4">
+        <v>0.89448000000000005</v>
+      </c>
+      <c r="AR4">
+        <v>0.92410000000000003</v>
+      </c>
+      <c r="AS4">
+        <v>0.91068000000000005</v>
+      </c>
+      <c r="AT4">
+        <v>0.90412000000000003</v>
+      </c>
+      <c r="AU4">
+        <v>0.88795999999999997</v>
+      </c>
+      <c r="AV4">
+        <v>0.90600000000000003</v>
+      </c>
+      <c r="AW4">
+        <v>0.89114000000000004</v>
+      </c>
+      <c r="AX4">
+        <v>0.88919999999999999</v>
+      </c>
+      <c r="AY4">
+        <v>0.89468000000000003</v>
+      </c>
+      <c r="AZ4">
+        <v>0.91866000000000003</v>
+      </c>
+      <c r="BA4">
+        <v>0.89732000000000001</v>
+      </c>
+      <c r="BB4">
+        <v>0.90476000000000001</v>
+      </c>
+      <c r="BC4">
+        <v>0.91466000000000003</v>
+      </c>
+      <c r="BD4">
+        <v>0.90093999999999996</v>
+      </c>
+      <c r="BE4">
+        <v>0.90112000000000003</v>
+      </c>
+      <c r="BF4">
+        <v>0.89058000000000004</v>
+      </c>
+      <c r="BG4">
+        <v>0.91596</v>
+      </c>
+      <c r="BH4">
         <v>0.90956000000000004</v>
       </c>
-      <c r="B1">
-        <v>0.88526000000000005</v>
-      </c>
-      <c r="C1">
-        <v>0.89741000000000004</v>
+      <c r="BI4">
+        <v>0.90173999999999999</v>
+      </c>
+      <c r="BJ4">
+        <v>0.89907999999999999</v>
+      </c>
+      <c r="BK4">
+        <v>0.93118000000000001</v>
+      </c>
+      <c r="BL4">
+        <v>0.90827999999999998</v>
+      </c>
+      <c r="BM4">
+        <v>0.89670000000000005</v>
+      </c>
+      <c r="BN4">
+        <v>0.87487999999999999</v>
+      </c>
+      <c r="BO4">
+        <v>0.91091999999999995</v>
+      </c>
+      <c r="BP4">
+        <v>0.91700000000000004</v>
+      </c>
+      <c r="BQ4">
+        <v>0.89964</v>
+      </c>
+      <c r="BR4">
+        <v>0.90069999999999995</v>
+      </c>
+      <c r="BS4">
+        <v>0.89803999999999995</v>
+      </c>
+      <c r="BT4">
+        <v>0.88360000000000005</v>
+      </c>
+      <c r="BU4">
+        <v>0.91579999999999995</v>
+      </c>
+      <c r="BV4">
+        <v>0.89173999999999998</v>
+      </c>
+      <c r="BW4">
+        <v>0.91081999999999996</v>
+      </c>
+      <c r="BX4">
+        <v>0.89593999999999996</v>
+      </c>
+      <c r="BY4">
+        <v>0.90436000000000005</v>
+      </c>
+      <c r="BZ4">
+        <v>0.9173</v>
+      </c>
+      <c r="CA4">
+        <v>0.91568000000000005</v>
+      </c>
+      <c r="CB4">
+        <v>0.88770000000000004</v>
+      </c>
+      <c r="CC4">
+        <v>0.91256000000000004</v>
+      </c>
+      <c r="CD4">
+        <v>0.88734000000000002</v>
+      </c>
+      <c r="CE4">
+        <v>0.91544000000000003</v>
+      </c>
+      <c r="CF4">
+        <v>0.90849999999999997</v>
+      </c>
+      <c r="CG4">
+        <v>0.88714000000000004</v>
+      </c>
+      <c r="CH4">
+        <v>0.90656000000000003</v>
+      </c>
+      <c r="CI4">
+        <v>0.89388000000000001</v>
+      </c>
+      <c r="CJ4">
+        <v>0.89785999999999999</v>
+      </c>
+      <c r="CK4">
+        <v>0.9083</v>
+      </c>
+      <c r="CL4">
+        <v>0.90624000000000005</v>
+      </c>
+      <c r="CM4">
+        <v>0.90878000000000003</v>
+      </c>
+      <c r="CN4">
+        <v>0.91805999999999999</v>
+      </c>
+      <c r="CO4">
+        <v>0.90866000000000002</v>
+      </c>
+      <c r="CP4">
+        <v>0.89964</v>
+      </c>
+      <c r="CQ4">
+        <v>0.90780000000000005</v>
+      </c>
+      <c r="CR4">
+        <v>0.91701999999999995</v>
+      </c>
+      <c r="CS4">
+        <v>0.90581999999999996</v>
+      </c>
+      <c r="CT4">
+        <v>0.89280000000000004</v>
+      </c>
+      <c r="CU4">
+        <v>0.90146000000000004</v>
+      </c>
+      <c r="CV4">
+        <v>0.89527999999999996</v>
+      </c>
+      <c r="CW4">
+        <v>0.90283979999999942</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2">
+    <row r="5" spans="1:101" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>0.89492000000000005</v>
+      </c>
+      <c r="B5">
+        <v>0.91449999999999998</v>
+      </c>
+      <c r="C5">
+        <v>0.89659999999999995</v>
+      </c>
+      <c r="D5">
+        <v>0.89566000000000001</v>
+      </c>
+      <c r="E5">
+        <v>0.88507999999999998</v>
+      </c>
+      <c r="F5">
+        <v>0.89180000000000004</v>
+      </c>
+      <c r="G5">
+        <v>0.91503999999999996</v>
+      </c>
+      <c r="H5">
+        <v>0.90510000000000002</v>
+      </c>
+      <c r="I5">
+        <v>0.92420000000000002</v>
+      </c>
+      <c r="J5">
+        <v>0.88495999999999997</v>
+      </c>
+      <c r="K5">
+        <v>0.90447999999999995</v>
+      </c>
+      <c r="L5">
+        <v>0.9012</v>
+      </c>
+      <c r="M5">
+        <v>0.88785999999999998</v>
+      </c>
+      <c r="N5">
+        <v>0.90681999999999996</v>
+      </c>
+      <c r="O5">
+        <v>0.89059999999999995</v>
+      </c>
+      <c r="P5">
+        <v>0.89273999999999998</v>
+      </c>
+      <c r="Q5">
+        <v>0.90778000000000003</v>
+      </c>
+      <c r="R5">
+        <v>0.89544000000000001</v>
+      </c>
+      <c r="S5">
+        <v>0.91434000000000004</v>
+      </c>
+      <c r="T5">
+        <v>0.91235999999999995</v>
+      </c>
+      <c r="U5">
+        <v>0.89070000000000005</v>
+      </c>
+      <c r="V5">
+        <v>0.89312000000000002</v>
+      </c>
+      <c r="W5">
+        <v>0.91049999999999998</v>
+      </c>
+      <c r="X5">
+        <v>0.88637999999999995</v>
+      </c>
+      <c r="Y5">
+        <v>0.90317999999999998</v>
+      </c>
+      <c r="Z5">
+        <v>0.91634000000000004</v>
+      </c>
+      <c r="AA5">
+        <v>0.90447999999999995</v>
+      </c>
+      <c r="AB5">
+        <v>0.90315999999999996</v>
+      </c>
+      <c r="AC5">
+        <v>0.90632000000000001</v>
+      </c>
+      <c r="AD5">
+        <v>0.89427999999999996</v>
+      </c>
+      <c r="AE5">
+        <v>0.90024000000000004</v>
+      </c>
+      <c r="AF5">
+        <v>0.89937999999999996</v>
+      </c>
+      <c r="AG5">
+        <v>0.90151999999999999</v>
+      </c>
+      <c r="AH5">
+        <v>0.90578000000000003</v>
+      </c>
+      <c r="AI5">
+        <v>0.90034000000000003</v>
+      </c>
+      <c r="AJ5">
+        <v>0.90103999999999995</v>
+      </c>
+      <c r="AK5">
+        <v>0.91213999999999995</v>
+      </c>
+      <c r="AL5">
+        <v>0.91581999999999997</v>
+      </c>
+      <c r="AM5">
+        <v>0.91073999999999999</v>
+      </c>
+      <c r="AN5">
+        <v>0.88304000000000005</v>
+      </c>
+      <c r="AO5">
+        <v>0.90632000000000001</v>
+      </c>
+      <c r="AP5">
+        <v>0.89815999999999996</v>
+      </c>
+      <c r="AQ5">
+        <v>0.91137999999999997</v>
+      </c>
+      <c r="AR5">
+        <v>0.90456000000000003</v>
+      </c>
+      <c r="AS5">
+        <v>0.91144000000000003</v>
+      </c>
+      <c r="AT5">
+        <v>0.89659999999999995</v>
+      </c>
+      <c r="AU5">
+        <v>0.91649999999999998</v>
+      </c>
+      <c r="AV5">
+        <v>0.9163</v>
+      </c>
+      <c r="AW5">
+        <v>0.90764</v>
+      </c>
+      <c r="AX5">
+        <v>0.91091999999999995</v>
+      </c>
+      <c r="AY5">
+        <v>0.91102000000000005</v>
+      </c>
+      <c r="AZ5">
+        <v>0.91152</v>
+      </c>
+      <c r="BA5">
+        <v>0.90732000000000002</v>
+      </c>
+      <c r="BB5">
+        <v>0.90010000000000001</v>
+      </c>
+      <c r="BC5">
+        <v>0.88071999999999995</v>
+      </c>
+      <c r="BD5">
+        <v>0.89395999999999998</v>
+      </c>
+      <c r="BE5">
+        <v>0.89473999999999998</v>
+      </c>
+      <c r="BF5">
+        <v>0.90736000000000006</v>
+      </c>
+      <c r="BG5">
+        <v>0.90403999999999995</v>
+      </c>
+      <c r="BH5">
+        <v>0.90642</v>
+      </c>
+      <c r="BI5">
+        <v>0.90266000000000002</v>
+      </c>
+      <c r="BJ5">
+        <v>0.89641999999999999</v>
+      </c>
+      <c r="BK5">
+        <v>0.91961999999999999</v>
+      </c>
+      <c r="BL5">
+        <v>0.90837999999999997</v>
+      </c>
+      <c r="BM5">
+        <v>0.89644000000000001</v>
+      </c>
+      <c r="BN5">
+        <v>0.88744000000000001</v>
+      </c>
+      <c r="BO5">
+        <v>0.91149999999999998</v>
+      </c>
+      <c r="BP5">
+        <v>0.90913999999999995</v>
+      </c>
+      <c r="BQ5">
+        <v>0.91274</v>
+      </c>
+      <c r="BR5">
+        <v>0.89173999999999998</v>
+      </c>
+      <c r="BS5">
+        <v>0.90010000000000001</v>
+      </c>
+      <c r="BT5">
+        <v>0.91012000000000004</v>
+      </c>
+      <c r="BU5">
+        <v>0.88561999999999996</v>
+      </c>
+      <c r="BV5">
+        <v>0.89414000000000005</v>
+      </c>
+      <c r="BW5">
+        <v>0.90317999999999998</v>
+      </c>
+      <c r="BX5">
+        <v>0.89970000000000006</v>
+      </c>
+      <c r="BY5">
+        <v>0.90246000000000004</v>
+      </c>
+      <c r="BZ5">
+        <v>0.89892000000000005</v>
+      </c>
+      <c r="CA5">
+        <v>0.88873999999999997</v>
+      </c>
+      <c r="CB5">
+        <v>0.90924000000000005</v>
+      </c>
+      <c r="CC5">
+        <v>0.91022000000000003</v>
+      </c>
+      <c r="CD5">
+        <v>0.90549999999999997</v>
+      </c>
+      <c r="CE5">
+        <v>0.90414000000000005</v>
+      </c>
+      <c r="CF5">
+        <v>0.90447999999999995</v>
+      </c>
+      <c r="CG5">
+        <v>0.89824000000000004</v>
+      </c>
+      <c r="CH5">
+        <v>0.90115999999999996</v>
+      </c>
+      <c r="CI5">
+        <v>0.89422000000000001</v>
+      </c>
+      <c r="CJ5">
+        <v>0.90125999999999995</v>
+      </c>
+      <c r="CK5">
+        <v>0.89834000000000003</v>
+      </c>
+      <c r="CL5">
+        <v>0.89910000000000001</v>
+      </c>
+      <c r="CM5">
+        <v>0.90354000000000001</v>
+      </c>
+      <c r="CN5">
+        <v>0.89398</v>
+      </c>
+      <c r="CO5">
+        <v>0.90391999999999995</v>
+      </c>
+      <c r="CP5">
+        <v>0.88663999999999998</v>
+      </c>
+      <c r="CQ5">
+        <v>0.90125999999999995</v>
+      </c>
+      <c r="CR5">
+        <v>0.90281999999999996</v>
+      </c>
+      <c r="CS5">
+        <v>0.88848000000000005</v>
+      </c>
+      <c r="CT5">
+        <v>0.91456000000000004</v>
+      </c>
+      <c r="CU5">
+        <v>0.89717999999999998</v>
+      </c>
+      <c r="CV5">
+        <v>0.89236000000000004</v>
+      </c>
+      <c r="CW5">
+        <v>0.90186699999999997</v>
+      </c>
+    </row>
+    <row r="6" spans="1:101" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>0.91822000000000004</v>
+      </c>
+      <c r="B6">
+        <v>0.90454000000000001</v>
+      </c>
+      <c r="C6">
+        <v>0.91076000000000001</v>
+      </c>
+      <c r="D6">
+        <v>0.89454</v>
+      </c>
+      <c r="E6">
+        <v>0.91279999999999994</v>
+      </c>
+      <c r="F6">
+        <v>0.91500000000000004</v>
+      </c>
+      <c r="G6">
+        <v>0.91342000000000001</v>
+      </c>
+      <c r="H6">
+        <v>0.88758000000000004</v>
+      </c>
+      <c r="I6">
+        <v>0.91903999999999997</v>
+      </c>
+      <c r="J6">
+        <v>0.89651999999999998</v>
+      </c>
+      <c r="K6">
+        <v>0.90758000000000005</v>
+      </c>
+      <c r="L6">
+        <v>0.89015999999999995</v>
+      </c>
+      <c r="M6">
+        <v>0.88649999999999995</v>
+      </c>
+      <c r="N6">
+        <v>0.90551999999999999</v>
+      </c>
+      <c r="O6">
+        <v>0.91823999999999995</v>
+      </c>
+      <c r="P6">
+        <v>0.91022000000000003</v>
+      </c>
+      <c r="Q6">
+        <v>0.90302000000000004</v>
+      </c>
+      <c r="R6">
+        <v>0.91095999999999999</v>
+      </c>
+      <c r="S6">
+        <v>0.90913999999999995</v>
+      </c>
+      <c r="T6">
+        <v>0.90876000000000001</v>
+      </c>
+      <c r="U6">
+        <v>0.90754000000000001</v>
+      </c>
+      <c r="V6">
+        <v>0.90444000000000002</v>
+      </c>
+      <c r="W6">
+        <v>0.90092000000000005</v>
+      </c>
+      <c r="X6">
+        <v>0.91671999999999998</v>
+      </c>
+      <c r="Y6">
+        <v>0.89802000000000004</v>
+      </c>
+      <c r="Z6">
+        <v>0.92205999999999999</v>
+      </c>
+      <c r="AA6">
+        <v>0.90417999999999998</v>
+      </c>
+      <c r="AB6">
+        <v>0.89995999999999998</v>
+      </c>
+      <c r="AC6">
+        <v>0.89880000000000004</v>
+      </c>
+      <c r="AD6">
+        <v>0.91927999999999999</v>
+      </c>
+      <c r="AE6">
+        <v>0.91259999999999997</v>
+      </c>
+      <c r="AF6">
+        <v>0.91202000000000005</v>
+      </c>
+      <c r="AG6">
+        <v>0.90288000000000002</v>
+      </c>
+      <c r="AH6">
+        <v>0.8992</v>
+      </c>
+      <c r="AI6">
+        <v>0.90844000000000003</v>
+      </c>
+      <c r="AJ6">
+        <v>0.88380000000000003</v>
+      </c>
+      <c r="AK6">
+        <v>0.91173999999999999</v>
+      </c>
+      <c r="AL6">
+        <v>0.90427999999999997</v>
+      </c>
+      <c r="AM6">
+        <v>0.89602000000000004</v>
+      </c>
+      <c r="AN6">
+        <v>0.89288000000000001</v>
+      </c>
+      <c r="AO6">
+        <v>0.89934000000000003</v>
+      </c>
+      <c r="AP6">
+        <v>0.91788000000000003</v>
+      </c>
+      <c r="AQ6">
+        <v>0.90112000000000003</v>
+      </c>
+      <c r="AR6">
+        <v>0.90693999999999997</v>
+      </c>
+      <c r="AS6">
+        <v>0.89595999999999998</v>
+      </c>
+      <c r="AT6">
+        <v>0.90025999999999995</v>
+      </c>
+      <c r="AU6">
+        <v>0.90010000000000001</v>
+      </c>
+      <c r="AV6">
+        <v>0.90949999999999998</v>
+      </c>
+      <c r="AW6">
+        <v>0.91400000000000003</v>
+      </c>
+      <c r="AX6">
+        <v>0.91391999999999995</v>
+      </c>
+      <c r="AY6">
+        <v>0.89883999999999997</v>
+      </c>
+      <c r="AZ6">
+        <v>0.90893999999999997</v>
+      </c>
+      <c r="BA6">
+        <v>0.91346000000000005</v>
+      </c>
+      <c r="BB6">
+        <v>0.90668000000000004</v>
+      </c>
+      <c r="BC6">
+        <v>0.90878000000000003</v>
+      </c>
+      <c r="BD6">
+        <v>0.90658000000000005</v>
+      </c>
+      <c r="BE6">
+        <v>0.88205999999999996</v>
+      </c>
+      <c r="BF6">
+        <v>0.90988000000000002</v>
+      </c>
+      <c r="BG6">
+        <v>0.91117999999999999</v>
+      </c>
+      <c r="BH6">
+        <v>0.92157999999999995</v>
+      </c>
+      <c r="BI6">
+        <v>0.90222000000000002</v>
+      </c>
+      <c r="BJ6">
+        <v>0.90844000000000003</v>
+      </c>
+      <c r="BK6">
+        <v>0.90203999999999995</v>
+      </c>
+      <c r="BL6">
+        <v>0.89371999999999996</v>
+      </c>
+      <c r="BM6">
+        <v>0.91146000000000005</v>
+      </c>
+      <c r="BN6">
+        <v>0.90971999999999997</v>
+      </c>
+      <c r="BO6">
+        <v>0.90378000000000003</v>
+      </c>
+      <c r="BP6">
+        <v>0.89558000000000004</v>
+      </c>
+      <c r="BQ6">
+        <v>0.9032</v>
+      </c>
+      <c r="BR6">
+        <v>0.90588000000000002</v>
+      </c>
+      <c r="BS6">
+        <v>0.89944000000000002</v>
+      </c>
+      <c r="BT6">
+        <v>0.92190000000000005</v>
+      </c>
+      <c r="BU6">
+        <v>0.90117999999999998</v>
+      </c>
+      <c r="BV6">
+        <v>0.89714000000000005</v>
+      </c>
+      <c r="BW6">
+        <v>0.91512000000000004</v>
+      </c>
+      <c r="BX6">
+        <v>0.90024000000000004</v>
+      </c>
+      <c r="BY6">
+        <v>0.90269999999999995</v>
+      </c>
+      <c r="BZ6">
+        <v>0.91173999999999999</v>
+      </c>
+      <c r="CA6">
+        <v>0.89541999999999999</v>
+      </c>
+      <c r="CB6">
+        <v>0.91090000000000004</v>
+      </c>
+      <c r="CC6">
+        <v>0.91920000000000002</v>
+      </c>
+      <c r="CD6">
+        <v>0.90788000000000002</v>
+      </c>
+      <c r="CE6">
+        <v>0.90505999999999998</v>
+      </c>
+      <c r="CF6">
+        <v>0.87614000000000003</v>
+      </c>
+      <c r="CG6">
+        <v>0.90612000000000004</v>
+      </c>
+      <c r="CH6">
+        <v>0.90044000000000002</v>
+      </c>
+      <c r="CI6">
+        <v>0.92186000000000001</v>
+      </c>
+      <c r="CJ6">
+        <v>0.89402000000000004</v>
+      </c>
+      <c r="CK6">
+        <v>0.89890000000000003</v>
+      </c>
+      <c r="CL6">
+        <v>0.90325999999999995</v>
+      </c>
+      <c r="CM6">
+        <v>0.91552</v>
+      </c>
+      <c r="CN6">
+        <v>0.91337999999999997</v>
+      </c>
+      <c r="CO6">
+        <v>0.91832000000000003</v>
+      </c>
+      <c r="CP6">
+        <v>0.91046000000000005</v>
+      </c>
+      <c r="CQ6">
+        <v>0.90964</v>
+      </c>
+      <c r="CR6">
+        <v>0.91749999999999998</v>
+      </c>
+      <c r="CS6">
+        <v>0.88051999999999997</v>
+      </c>
+      <c r="CT6">
+        <v>0.90503999999999996</v>
+      </c>
+      <c r="CU6">
+        <v>0.90724000000000005</v>
+      </c>
+      <c r="CV6">
+        <v>0.90680000000000005</v>
+      </c>
+      <c r="CW6">
+        <v>0.90554420000000002</v>
+      </c>
+    </row>
+    <row r="7" spans="1:101" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>0.88802000000000003</v>
+      </c>
+      <c r="B7">
         <v>0.91303999999999996</v>
       </c>
-      <c r="B2">
-        <v>0.90827999999999998</v>
-      </c>
-      <c r="C2">
-        <v>0.91066000000000003</v>
+      <c r="C7">
+        <v>0.91210000000000002</v>
+      </c>
+      <c r="D7">
+        <v>0.91176000000000001</v>
+      </c>
+      <c r="E7">
+        <v>0.91161999999999999</v>
+      </c>
+      <c r="F7">
+        <v>0.89051999999999998</v>
+      </c>
+      <c r="G7">
+        <v>0.91012000000000004</v>
+      </c>
+      <c r="H7">
+        <v>0.89888000000000001</v>
+      </c>
+      <c r="I7">
+        <v>0.90247999999999995</v>
+      </c>
+      <c r="J7">
+        <v>0.90620000000000001</v>
+      </c>
+      <c r="K7">
+        <v>0.90083999999999997</v>
+      </c>
+      <c r="L7">
+        <v>0.90990000000000004</v>
+      </c>
+      <c r="M7">
+        <v>0.90390000000000004</v>
+      </c>
+      <c r="N7">
+        <v>0.90803999999999996</v>
+      </c>
+      <c r="O7">
+        <v>0.91078000000000003</v>
+      </c>
+      <c r="P7">
+        <v>0.9113</v>
+      </c>
+      <c r="Q7">
+        <v>0.90258000000000005</v>
+      </c>
+      <c r="R7">
+        <v>0.91546000000000005</v>
+      </c>
+      <c r="S7">
+        <v>0.89912000000000003</v>
+      </c>
+      <c r="T7">
+        <v>0.89968000000000004</v>
+      </c>
+      <c r="U7">
+        <v>0.88944000000000001</v>
+      </c>
+      <c r="V7">
+        <v>0.90386</v>
+      </c>
+      <c r="W7">
+        <v>0.91112000000000004</v>
+      </c>
+      <c r="X7">
+        <v>0.9042</v>
+      </c>
+      <c r="Y7">
+        <v>0.88778000000000001</v>
+      </c>
+      <c r="Z7">
+        <v>0.90400000000000003</v>
+      </c>
+      <c r="AA7">
+        <v>0.89917999999999998</v>
+      </c>
+      <c r="AB7">
+        <v>0.90980000000000005</v>
+      </c>
+      <c r="AC7">
+        <v>0.91290000000000004</v>
+      </c>
+      <c r="AD7">
+        <v>0.9153</v>
+      </c>
+      <c r="AE7">
+        <v>0.92125999999999997</v>
+      </c>
+      <c r="AF7">
+        <v>0.90332000000000001</v>
+      </c>
+      <c r="AG7">
+        <v>0.90100000000000002</v>
+      </c>
+      <c r="AH7">
+        <v>0.91342000000000001</v>
+      </c>
+      <c r="AI7">
+        <v>0.91027999999999998</v>
+      </c>
+      <c r="AJ7">
+        <v>0.91747999999999996</v>
+      </c>
+      <c r="AK7">
+        <v>0.90427999999999997</v>
+      </c>
+      <c r="AL7">
+        <v>0.90261999999999998</v>
+      </c>
+      <c r="AM7">
+        <v>0.90300000000000002</v>
+      </c>
+      <c r="AN7">
+        <v>0.89215999999999995</v>
+      </c>
+      <c r="AO7">
+        <v>0.90627999999999997</v>
+      </c>
+      <c r="AP7">
+        <v>0.90935999999999995</v>
+      </c>
+      <c r="AQ7">
+        <v>0.90810999999999997</v>
+      </c>
+      <c r="AR7">
+        <v>0.89002000000000003</v>
+      </c>
+      <c r="AS7">
+        <v>0.91925999999999997</v>
+      </c>
+      <c r="AT7">
+        <v>0.90698000000000001</v>
+      </c>
+      <c r="AU7">
+        <v>0.90636000000000005</v>
+      </c>
+      <c r="AV7">
+        <v>0.90242</v>
+      </c>
+      <c r="AW7">
+        <v>0.90446000000000004</v>
+      </c>
+      <c r="AX7">
+        <v>0.91820000000000002</v>
+      </c>
+      <c r="AY7">
+        <v>0.90132000000000001</v>
+      </c>
+      <c r="AZ7">
+        <v>0.91886000000000001</v>
+      </c>
+      <c r="BA7">
+        <v>0.91622000000000003</v>
+      </c>
+      <c r="BB7">
+        <v>0.91112000000000004</v>
+      </c>
+      <c r="BC7">
+        <v>0.90314000000000005</v>
+      </c>
+      <c r="BD7">
+        <v>0.90073999999999999</v>
+      </c>
+      <c r="BE7">
+        <v>0.89654</v>
+      </c>
+      <c r="BF7">
+        <v>0.91110000000000002</v>
+      </c>
+      <c r="BG7">
+        <v>0.89859999999999995</v>
+      </c>
+      <c r="BH7">
+        <v>0.8891</v>
+      </c>
+      <c r="BI7">
+        <v>0.91274</v>
+      </c>
+      <c r="BJ7">
+        <v>0.89283999999999997</v>
+      </c>
+      <c r="BK7">
+        <v>0.92190000000000005</v>
+      </c>
+      <c r="BL7">
+        <v>0.91246000000000005</v>
+      </c>
+      <c r="BM7">
+        <v>0.91308</v>
+      </c>
+      <c r="BN7">
+        <v>0.90236000000000005</v>
+      </c>
+      <c r="BO7">
+        <v>0.90222000000000002</v>
+      </c>
+      <c r="BP7">
+        <v>0.88549999999999995</v>
+      </c>
+      <c r="BQ7">
+        <v>0.89388000000000001</v>
+      </c>
+      <c r="BR7">
+        <v>0.92296</v>
+      </c>
+      <c r="BS7">
+        <v>0.91339999999999999</v>
+      </c>
+      <c r="BT7">
+        <v>0.90780000000000005</v>
+      </c>
+      <c r="BU7">
+        <v>0.89832000000000001</v>
+      </c>
+      <c r="BV7">
+        <v>0.90964</v>
+      </c>
+      <c r="BW7">
+        <v>0.90600000000000003</v>
+      </c>
+      <c r="BX7">
+        <v>0.89300000000000002</v>
+      </c>
+      <c r="BY7">
+        <v>0.90256000000000003</v>
+      </c>
+      <c r="BZ7">
+        <v>0.90405999999999997</v>
+      </c>
+      <c r="CA7">
+        <v>0.89122000000000001</v>
+      </c>
+      <c r="CB7">
+        <v>0.91120000000000001</v>
+      </c>
+      <c r="CC7">
+        <v>0.88285999999999998</v>
+      </c>
+      <c r="CD7">
+        <v>0.91166000000000003</v>
+      </c>
+      <c r="CE7">
+        <v>0.91371999999999998</v>
+      </c>
+      <c r="CF7">
+        <v>0.90717999999999999</v>
+      </c>
+      <c r="CG7">
+        <v>0.92100000000000004</v>
+      </c>
+      <c r="CH7">
+        <v>0.90407999999999999</v>
+      </c>
+      <c r="CI7">
+        <v>0.92845999999999995</v>
+      </c>
+      <c r="CJ7">
+        <v>0.90898000000000001</v>
+      </c>
+      <c r="CK7">
+        <v>0.91044000000000003</v>
+      </c>
+      <c r="CL7">
+        <v>0.91025999999999996</v>
+      </c>
+      <c r="CM7">
+        <v>0.90483999999999998</v>
+      </c>
+      <c r="CN7">
+        <v>0.91257999999999995</v>
+      </c>
+      <c r="CO7">
+        <v>0.89532</v>
+      </c>
+      <c r="CP7">
+        <v>0.9133</v>
+      </c>
+      <c r="CQ7">
+        <v>0.88926000000000005</v>
+      </c>
+      <c r="CR7">
+        <v>0.90473999999999999</v>
+      </c>
+      <c r="CS7">
+        <v>0.91656000000000004</v>
+      </c>
+      <c r="CT7">
+        <v>0.90476000000000001</v>
+      </c>
+      <c r="CU7">
+        <v>0.90281999999999996</v>
+      </c>
+      <c r="CV7">
+        <v>0.89681999999999995</v>
+      </c>
+      <c r="CW7">
+        <v>0.90567709999999979</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3">
-        <v>0.89683999999999997</v>
-      </c>
-      <c r="B3">
-        <v>0.90981999999999996</v>
-      </c>
-      <c r="C3">
-        <v>0.90332999999999997</v>
+    <row r="8" spans="1:101" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>0.89781999999999995</v>
+      </c>
+      <c r="B8">
+        <v>0.90207999999999999</v>
+      </c>
+      <c r="C8">
+        <v>0.90903999999999996</v>
+      </c>
+      <c r="D8">
+        <v>0.91468000000000005</v>
+      </c>
+      <c r="E8">
+        <v>0.91825999999999997</v>
+      </c>
+      <c r="F8">
+        <v>0.90593999999999997</v>
+      </c>
+      <c r="G8">
+        <v>0.89570000000000005</v>
+      </c>
+      <c r="H8">
+        <v>0.90007999999999999</v>
+      </c>
+      <c r="I8">
+        <v>0.88785999999999998</v>
+      </c>
+      <c r="J8">
+        <v>0.89727999999999997</v>
+      </c>
+      <c r="K8">
+        <v>0.90151999999999999</v>
+      </c>
+      <c r="L8">
+        <v>0.90061999999999998</v>
+      </c>
+      <c r="M8">
+        <v>0.89671999999999996</v>
+      </c>
+      <c r="N8">
+        <v>0.90642</v>
+      </c>
+      <c r="O8">
+        <v>0.89978000000000002</v>
+      </c>
+      <c r="P8">
+        <v>0.89736000000000005</v>
+      </c>
+      <c r="Q8">
+        <v>0.90480000000000005</v>
+      </c>
+      <c r="R8">
+        <v>0.90022000000000002</v>
+      </c>
+      <c r="S8">
+        <v>0.88173999999999997</v>
+      </c>
+      <c r="T8">
+        <v>0.89644000000000001</v>
+      </c>
+      <c r="U8">
+        <v>0.89792000000000005</v>
+      </c>
+      <c r="V8">
+        <v>0.91756000000000004</v>
+      </c>
+      <c r="W8">
+        <v>0.91339999999999999</v>
+      </c>
+      <c r="X8">
+        <v>0.90322000000000002</v>
+      </c>
+      <c r="Y8">
+        <v>0.91769999999999996</v>
+      </c>
+      <c r="Z8">
+        <v>0.89863999999999999</v>
+      </c>
+      <c r="AA8">
+        <v>0.89070000000000005</v>
+      </c>
+      <c r="AB8">
+        <v>0.90256000000000003</v>
+      </c>
+      <c r="AC8">
+        <v>0.90847999999999995</v>
+      </c>
+      <c r="AD8">
+        <v>0.90680000000000005</v>
+      </c>
+      <c r="AE8">
+        <v>0.91996</v>
+      </c>
+      <c r="AF8">
+        <v>0.90935999999999995</v>
+      </c>
+      <c r="AG8">
+        <v>0.87992000000000004</v>
+      </c>
+      <c r="AH8">
+        <v>0.90742</v>
+      </c>
+      <c r="AI8">
+        <v>0.90864</v>
+      </c>
+      <c r="AJ8">
+        <v>0.90566000000000002</v>
+      </c>
+      <c r="AK8">
+        <v>0.90686</v>
+      </c>
+      <c r="AL8">
+        <v>0.89942</v>
+      </c>
+      <c r="AM8">
+        <v>0.89185999999999999</v>
+      </c>
+      <c r="AN8">
+        <v>0.89725999999999995</v>
+      </c>
+      <c r="AO8">
+        <v>0.90764</v>
+      </c>
+      <c r="AP8">
+        <v>0.91403999999999996</v>
+      </c>
+      <c r="AQ8">
+        <v>0.88600000000000001</v>
+      </c>
+      <c r="AR8">
+        <v>0.90776000000000001</v>
+      </c>
+      <c r="AS8">
+        <v>0.90322000000000002</v>
+      </c>
+      <c r="AT8">
+        <v>0.90876000000000001</v>
+      </c>
+      <c r="AU8">
+        <v>0.90712000000000004</v>
+      </c>
+      <c r="AV8">
+        <v>0.90427999999999997</v>
+      </c>
+      <c r="AW8">
+        <v>0.91159999999999997</v>
+      </c>
+      <c r="AX8">
+        <v>0.90203999999999995</v>
+      </c>
+      <c r="AY8">
+        <v>0.90624000000000005</v>
+      </c>
+      <c r="AZ8">
+        <v>0.88541999999999998</v>
+      </c>
+      <c r="BA8">
+        <v>0.90558000000000005</v>
+      </c>
+      <c r="BB8">
+        <v>0.91208</v>
+      </c>
+      <c r="BC8">
+        <v>0.89573999999999998</v>
+      </c>
+      <c r="BD8">
+        <v>0.90666000000000002</v>
+      </c>
+      <c r="BE8">
+        <v>0.89671999999999996</v>
+      </c>
+      <c r="BF8">
+        <v>0.89737999999999996</v>
+      </c>
+      <c r="BG8">
+        <v>0.91144000000000003</v>
+      </c>
+      <c r="BH8">
+        <v>0.89441999999999999</v>
+      </c>
+      <c r="BI8">
+        <v>0.9002</v>
+      </c>
+      <c r="BJ8">
+        <v>0.91080000000000005</v>
+      </c>
+      <c r="BK8">
+        <v>0.91052</v>
+      </c>
+      <c r="BL8">
+        <v>0.89980000000000004</v>
+      </c>
+      <c r="BM8">
+        <v>0.90410000000000001</v>
+      </c>
+      <c r="BN8">
+        <v>0.89198</v>
+      </c>
+      <c r="BO8">
+        <v>0.89488000000000001</v>
+      </c>
+      <c r="BP8">
+        <v>0.90259999999999996</v>
+      </c>
+      <c r="BQ8">
+        <v>0.91459999999999997</v>
+      </c>
+      <c r="BR8">
+        <v>0.90286</v>
+      </c>
+      <c r="BS8">
+        <v>0.89461999999999997</v>
+      </c>
+      <c r="BT8">
+        <v>0.90366000000000002</v>
+      </c>
+      <c r="BU8">
+        <v>0.90286</v>
+      </c>
+      <c r="BV8">
+        <v>0.90224000000000004</v>
+      </c>
+      <c r="BW8">
+        <v>0.90502000000000005</v>
+      </c>
+      <c r="BX8">
+        <v>0.90749999999999997</v>
+      </c>
+      <c r="BY8">
+        <v>0.91591999999999996</v>
+      </c>
+      <c r="BZ8">
+        <v>0.90883999999999998</v>
+      </c>
+      <c r="CA8">
+        <v>0.89748000000000006</v>
+      </c>
+      <c r="CB8">
+        <v>0.89770000000000005</v>
+      </c>
+      <c r="CC8">
+        <v>0.90871999999999997</v>
+      </c>
+      <c r="CD8">
+        <v>0.91513999999999995</v>
+      </c>
+      <c r="CE8">
+        <v>0.89917999999999998</v>
+      </c>
+      <c r="CF8">
+        <v>0.90137999999999996</v>
+      </c>
+      <c r="CG8">
+        <v>0.90581999999999996</v>
+      </c>
+      <c r="CH8">
+        <v>0.90527999999999997</v>
+      </c>
+      <c r="CI8">
+        <v>0.88629999999999998</v>
+      </c>
+      <c r="CJ8">
+        <v>0.90969999999999995</v>
+      </c>
+      <c r="CK8">
+        <v>0.89722000000000002</v>
+      </c>
+      <c r="CL8">
+        <v>0.88805999999999996</v>
+      </c>
+      <c r="CM8">
+        <v>0.92227999999999999</v>
+      </c>
+      <c r="CN8">
+        <v>0.90949999999999998</v>
+      </c>
+      <c r="CO8">
+        <v>0.91454000000000002</v>
+      </c>
+      <c r="CP8">
+        <v>0.92110000000000003</v>
+      </c>
+      <c r="CQ8">
+        <v>0.90969999999999995</v>
+      </c>
+      <c r="CR8">
+        <v>0.91302000000000005</v>
+      </c>
+      <c r="CS8">
+        <v>0.90508</v>
+      </c>
+      <c r="CT8">
+        <v>0.90654000000000001</v>
+      </c>
+      <c r="CU8">
+        <v>0.90990000000000004</v>
+      </c>
+      <c r="CV8">
+        <v>0.90693999999999997</v>
+      </c>
+      <c r="CW8">
+        <v>0.9036542000000003</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4">
-        <v>0.88168000000000002</v>
-      </c>
-      <c r="B4">
+    <row r="9" spans="1:101" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>0.91915999999999998</v>
+      </c>
+      <c r="B9">
+        <v>0.90527999999999997</v>
+      </c>
+      <c r="C9">
+        <v>0.90271999999999997</v>
+      </c>
+      <c r="D9">
+        <v>0.90402000000000005</v>
+      </c>
+      <c r="E9">
+        <v>0.90442</v>
+      </c>
+      <c r="F9">
+        <v>0.90529999999999999</v>
+      </c>
+      <c r="G9">
+        <v>0.90664</v>
+      </c>
+      <c r="H9">
+        <v>0.88904000000000005</v>
+      </c>
+      <c r="I9">
+        <v>0.91303999999999996</v>
+      </c>
+      <c r="J9">
+        <v>0.89400000000000002</v>
+      </c>
+      <c r="K9">
+        <v>0.90083999999999997</v>
+      </c>
+      <c r="L9">
+        <v>0.90291999999999994</v>
+      </c>
+      <c r="M9">
+        <v>0.89229999999999998</v>
+      </c>
+      <c r="N9">
+        <v>0.90014000000000005</v>
+      </c>
+      <c r="O9">
+        <v>0.91169999999999995</v>
+      </c>
+      <c r="P9">
+        <v>0.88966000000000001</v>
+      </c>
+      <c r="Q9">
+        <v>0.90822000000000003</v>
+      </c>
+      <c r="R9">
+        <v>0.90817999999999999</v>
+      </c>
+      <c r="S9">
+        <v>0.90129999999999999</v>
+      </c>
+      <c r="T9">
+        <v>0.92267999999999994</v>
+      </c>
+      <c r="U9">
+        <v>0.91078000000000003</v>
+      </c>
+      <c r="V9">
+        <v>0.90322000000000002</v>
+      </c>
+      <c r="W9">
+        <v>0.91359999999999997</v>
+      </c>
+      <c r="X9">
+        <v>0.90407999999999999</v>
+      </c>
+      <c r="Y9">
+        <v>0.91047999999999996</v>
+      </c>
+      <c r="Z9">
+        <v>0.90800000000000003</v>
+      </c>
+      <c r="AA9">
+        <v>0.91837999999999997</v>
+      </c>
+      <c r="AB9">
+        <v>0.92727999999999999</v>
+      </c>
+      <c r="AC9">
+        <v>0.90603999999999996</v>
+      </c>
+      <c r="AD9">
+        <v>0.90790000000000004</v>
+      </c>
+      <c r="AE9">
+        <v>0.88900000000000001</v>
+      </c>
+      <c r="AF9">
+        <v>0.90439999999999998</v>
+      </c>
+      <c r="AG9">
+        <v>0.91481999999999997</v>
+      </c>
+      <c r="AH9">
+        <v>0.91846000000000005</v>
+      </c>
+      <c r="AI9">
+        <v>0.91386000000000001</v>
+      </c>
+      <c r="AJ9">
+        <v>0.9163</v>
+      </c>
+      <c r="AK9">
+        <v>0.90949999999999998</v>
+      </c>
+      <c r="AL9">
+        <v>0.91064000000000001</v>
+      </c>
+      <c r="AM9">
+        <v>0.90281</v>
+      </c>
+      <c r="AN9">
+        <v>0.90693999999999997</v>
+      </c>
+      <c r="AO9">
+        <v>0.92032000000000003</v>
+      </c>
+      <c r="AP9">
+        <v>0.90127999999999997</v>
+      </c>
+      <c r="AQ9">
+        <v>0.91415999999999997</v>
+      </c>
+      <c r="AR9">
+        <v>0.91513999999999995</v>
+      </c>
+      <c r="AS9">
+        <v>0.9194</v>
+      </c>
+      <c r="AT9">
+        <v>0.90239999999999998</v>
+      </c>
+      <c r="AU9">
+        <v>0.90229999999999999</v>
+      </c>
+      <c r="AV9">
+        <v>0.91956000000000004</v>
+      </c>
+      <c r="AW9">
+        <v>0.89590000000000003</v>
+      </c>
+      <c r="AX9">
+        <v>0.90225</v>
+      </c>
+      <c r="AY9">
+        <v>0.89793999999999996</v>
+      </c>
+      <c r="AZ9">
+        <v>0.90056000000000003</v>
+      </c>
+      <c r="BA9">
+        <v>0.89970000000000006</v>
+      </c>
+      <c r="BB9">
+        <v>0.91415999999999997</v>
+      </c>
+      <c r="BC9">
+        <v>0.91947999999999996</v>
+      </c>
+      <c r="BD9">
+        <v>0.91227999999999998</v>
+      </c>
+      <c r="BE9">
+        <v>0.91444000000000003</v>
+      </c>
+      <c r="BF9">
+        <v>0.89883999999999997</v>
+      </c>
+      <c r="BG9">
+        <v>0.90295999999999998</v>
+      </c>
+      <c r="BH9">
+        <v>0.90920000000000001</v>
+      </c>
+      <c r="BI9">
+        <v>0.92183999999999999</v>
+      </c>
+      <c r="BJ9">
+        <v>0.91734000000000004</v>
+      </c>
+      <c r="BK9">
+        <v>0.92096</v>
+      </c>
+      <c r="BL9">
+        <v>0.90525999999999995</v>
+      </c>
+      <c r="BM9">
+        <v>0.89637999999999995</v>
+      </c>
+      <c r="BN9">
+        <v>0.90536000000000005</v>
+      </c>
+      <c r="BO9">
+        <v>0.90115999999999996</v>
+      </c>
+      <c r="BP9">
+        <v>0.91400000000000003</v>
+      </c>
+      <c r="BQ9">
+        <v>0.90603999999999996</v>
+      </c>
+      <c r="BR9">
+        <v>0.90554000000000001</v>
+      </c>
+      <c r="BS9">
+        <v>0.90946000000000005</v>
+      </c>
+      <c r="BT9">
+        <v>0.90825999999999996</v>
+      </c>
+      <c r="BU9">
+        <v>0.91490000000000005</v>
+      </c>
+      <c r="BV9">
+        <v>0.91064000000000001</v>
+      </c>
+      <c r="BW9">
+        <v>0.90622000000000003</v>
+      </c>
+      <c r="BX9">
+        <v>0.91317999999999999</v>
+      </c>
+      <c r="BY9">
+        <v>0.89825999999999995</v>
+      </c>
+      <c r="BZ9">
+        <v>0.90568000000000004</v>
+      </c>
+      <c r="CA9">
+        <v>0.90317999999999998</v>
+      </c>
+      <c r="CB9">
+        <v>0.90478000000000003</v>
+      </c>
+      <c r="CC9">
+        <v>0.89085999999999999</v>
+      </c>
+      <c r="CD9">
+        <v>0.87839999999999996</v>
+      </c>
+      <c r="CE9">
+        <v>0.91790000000000005</v>
+      </c>
+      <c r="CF9">
+        <v>0.89571999999999996</v>
+      </c>
+      <c r="CG9">
+        <v>0.89688000000000001</v>
+      </c>
+      <c r="CH9">
+        <v>0.90286</v>
+      </c>
+      <c r="CI9">
+        <v>0.90047999999999995</v>
+      </c>
+      <c r="CJ9">
+        <v>0.90025999999999995</v>
+      </c>
+      <c r="CK9">
+        <v>0.89758000000000004</v>
+      </c>
+      <c r="CL9">
+        <v>0.89176</v>
+      </c>
+      <c r="CM9">
+        <v>0.90232000000000001</v>
+      </c>
+      <c r="CN9">
+        <v>0.91476000000000002</v>
+      </c>
+      <c r="CO9">
+        <v>0.89732000000000001</v>
+      </c>
+      <c r="CP9">
+        <v>0.89612000000000003</v>
+      </c>
+      <c r="CQ9">
+        <v>0.90066000000000002</v>
+      </c>
+      <c r="CR9">
+        <v>0.89417999999999997</v>
+      </c>
+      <c r="CS9">
+        <v>0.90261999999999998</v>
+      </c>
+      <c r="CT9">
+        <v>0.92288000000000003</v>
+      </c>
+      <c r="CU9">
+        <v>0.91025999999999996</v>
+      </c>
+      <c r="CV9">
+        <v>0.90495999999999999</v>
+      </c>
+      <c r="CW9">
+        <v>0.9062754000000004</v>
+      </c>
+    </row>
+    <row r="10" spans="1:101" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>0.91579999999999995</v>
+      </c>
+      <c r="B10">
+        <v>0.91095999999999999</v>
+      </c>
+      <c r="C10">
+        <v>0.89649999999999996</v>
+      </c>
+      <c r="D10">
+        <v>0.90417999999999998</v>
+      </c>
+      <c r="E10">
+        <v>0.9042</v>
+      </c>
+      <c r="F10">
+        <v>0.91712000000000005</v>
+      </c>
+      <c r="G10">
+        <v>0.90515999999999996</v>
+      </c>
+      <c r="H10">
+        <v>0.90693999999999997</v>
+      </c>
+      <c r="I10">
+        <v>0.92213999999999996</v>
+      </c>
+      <c r="J10">
+        <v>0.92096</v>
+      </c>
+      <c r="K10">
+        <v>0.90790000000000004</v>
+      </c>
+      <c r="L10">
+        <v>0.89929999999999999</v>
+      </c>
+      <c r="M10">
+        <v>0.91357999999999995</v>
+      </c>
+      <c r="N10">
+        <v>0.90361999999999998</v>
+      </c>
+      <c r="O10">
+        <v>0.89929999999999999</v>
+      </c>
+      <c r="P10">
+        <v>0.9032</v>
+      </c>
+      <c r="Q10">
+        <v>0.90210000000000001</v>
+      </c>
+      <c r="R10">
+        <v>0.90283999999999998</v>
+      </c>
+      <c r="S10">
+        <v>0.90381999999999996</v>
+      </c>
+      <c r="T10">
+        <v>0.89376</v>
+      </c>
+      <c r="U10">
+        <v>0.90603999999999996</v>
+      </c>
+      <c r="V10">
+        <v>0.89119999999999999</v>
+      </c>
+      <c r="W10">
+        <v>0.90913999999999995</v>
+      </c>
+      <c r="X10">
+        <v>0.90491999999999995</v>
+      </c>
+      <c r="Y10">
+        <v>0.90678000000000003</v>
+      </c>
+      <c r="Z10">
+        <v>0.92218</v>
+      </c>
+      <c r="AA10">
+        <v>0.90222000000000002</v>
+      </c>
+      <c r="AB10">
+        <v>0.90242</v>
+      </c>
+      <c r="AC10">
+        <v>0.91193999999999997</v>
+      </c>
+      <c r="AD10">
+        <v>0.90866000000000002</v>
+      </c>
+      <c r="AE10">
+        <v>0.91578000000000004</v>
+      </c>
+      <c r="AF10">
+        <v>0.90524000000000004</v>
+      </c>
+      <c r="AG10">
+        <v>0.9143</v>
+      </c>
+      <c r="AH10">
+        <v>0.90608</v>
+      </c>
+      <c r="AI10">
+        <v>0.92118</v>
+      </c>
+      <c r="AJ10">
+        <v>0.91298000000000001</v>
+      </c>
+      <c r="AK10">
+        <v>0.90498000000000001</v>
+      </c>
+      <c r="AL10">
+        <v>0.91061999999999999</v>
+      </c>
+      <c r="AM10">
+        <v>0.89668000000000003</v>
+      </c>
+      <c r="AN10">
+        <v>0.90424000000000004</v>
+      </c>
+      <c r="AO10">
+        <v>0.91322000000000003</v>
+      </c>
+      <c r="AP10">
+        <v>0.89746000000000004</v>
+      </c>
+      <c r="AQ10">
+        <v>0.90688000000000002</v>
+      </c>
+      <c r="AR10">
+        <v>0.91715999999999998</v>
+      </c>
+      <c r="AS10">
+        <v>0.89605999999999997</v>
+      </c>
+      <c r="AT10">
+        <v>0.9042</v>
+      </c>
+      <c r="AU10">
+        <v>0.91657999999999995</v>
+      </c>
+      <c r="AV10">
+        <v>0.90405999999999997</v>
+      </c>
+      <c r="AW10">
+        <v>0.90136000000000005</v>
+      </c>
+      <c r="AX10">
+        <v>0.90505999999999998</v>
+      </c>
+      <c r="AY10">
+        <v>0.88778000000000001</v>
+      </c>
+      <c r="AZ10">
+        <v>0.91046000000000005</v>
+      </c>
+      <c r="BA10">
+        <v>0.90051999999999999</v>
+      </c>
+      <c r="BB10">
+        <v>0.92149999999999999</v>
+      </c>
+      <c r="BC10">
+        <v>0.92008000000000001</v>
+      </c>
+      <c r="BD10">
+        <v>0.90546000000000004</v>
+      </c>
+      <c r="BE10">
+        <v>0.91152</v>
+      </c>
+      <c r="BF10">
+        <v>0.88992000000000004</v>
+      </c>
+      <c r="BG10">
+        <v>0.90324000000000004</v>
+      </c>
+      <c r="BH10">
+        <v>0.90949999999999998</v>
+      </c>
+      <c r="BI10">
+        <v>0.91927999999999999</v>
+      </c>
+      <c r="BJ10">
+        <v>0.91034000000000004</v>
+      </c>
+      <c r="BK10">
+        <v>0.90288000000000002</v>
+      </c>
+      <c r="BL10">
+        <v>0.88127999999999995</v>
+      </c>
+      <c r="BM10">
+        <v>0.89795999999999998</v>
+      </c>
+      <c r="BN10">
+        <v>0.91646000000000005</v>
+      </c>
+      <c r="BO10">
+        <v>0.89573999999999998</v>
+      </c>
+      <c r="BP10">
+        <v>0.90824000000000005</v>
+      </c>
+      <c r="BQ10">
+        <v>0.91581999999999997</v>
+      </c>
+      <c r="BR10">
+        <v>0.89525999999999994</v>
+      </c>
+      <c r="BS10">
+        <v>0.91700000000000004</v>
+      </c>
+      <c r="BT10">
+        <v>0.90546000000000004</v>
+      </c>
+      <c r="BU10">
+        <v>0.90244000000000002</v>
+      </c>
+      <c r="BV10">
+        <v>0.91276000000000002</v>
+      </c>
+      <c r="BW10">
+        <v>0.91015999999999997</v>
+      </c>
+      <c r="BX10">
+        <v>0.91078000000000003</v>
+      </c>
+      <c r="BY10">
+        <v>0.91556000000000004</v>
+      </c>
+      <c r="BZ10">
+        <v>0.91156000000000004</v>
+      </c>
+      <c r="CA10">
+        <v>0.89419999999999999</v>
+      </c>
+      <c r="CB10">
+        <v>0.91600000000000004</v>
+      </c>
+      <c r="CC10">
+        <v>0.91247999999999996</v>
+      </c>
+      <c r="CD10">
+        <v>0.91008</v>
+      </c>
+      <c r="CE10">
+        <v>0.89861999999999997</v>
+      </c>
+      <c r="CF10">
+        <v>0.89893999999999996</v>
+      </c>
+      <c r="CG10">
+        <v>0.91925999999999997</v>
+      </c>
+      <c r="CH10">
+        <v>0.91076000000000001</v>
+      </c>
+      <c r="CI10">
+        <v>0.89641999999999999</v>
+      </c>
+      <c r="CJ10">
+        <v>0.90142</v>
+      </c>
+      <c r="CK10">
+        <v>0.90798000000000001</v>
+      </c>
+      <c r="CL10">
+        <v>0.91771999999999998</v>
+      </c>
+      <c r="CM10">
+        <v>0.93015999999999999</v>
+      </c>
+      <c r="CN10">
+        <v>0.89800000000000002</v>
+      </c>
+      <c r="CO10">
+        <v>0.91744000000000003</v>
+      </c>
+      <c r="CP10">
+        <v>0.90369999999999995</v>
+      </c>
+      <c r="CQ10">
+        <v>0.91679999999999995</v>
+      </c>
+      <c r="CR10">
+        <v>0.90468000000000004</v>
+      </c>
+      <c r="CS10">
+        <v>0.91342000000000001</v>
+      </c>
+      <c r="CT10">
+        <v>0.91195999999999999</v>
+      </c>
+      <c r="CU10">
+        <v>0.91581999999999997</v>
+      </c>
+      <c r="CV10">
+        <v>0.90791999999999995</v>
+      </c>
+      <c r="CW10">
+        <v>0.90745739999999997</v>
+      </c>
+    </row>
+    <row r="11" spans="1:101" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>0.90442</v>
+      </c>
+      <c r="B11">
+        <v>0.90915999999999997</v>
+      </c>
+      <c r="C11">
+        <v>0.91317999999999999</v>
+      </c>
+      <c r="D11">
+        <v>0.92145999999999995</v>
+      </c>
+      <c r="E11">
+        <v>0.91303000000000001</v>
+      </c>
+      <c r="F11">
+        <v>0.89012000000000002</v>
+      </c>
+      <c r="G11">
+        <v>0.91205999999999998</v>
+      </c>
+      <c r="H11">
+        <v>0.90612000000000004</v>
+      </c>
+      <c r="I11">
+        <v>0.91246000000000005</v>
+      </c>
+      <c r="J11">
+        <v>0.90598000000000001</v>
+      </c>
+      <c r="K11">
+        <v>0.90273999999999999</v>
+      </c>
+      <c r="L11">
+        <v>0.90700000000000003</v>
+      </c>
+      <c r="M11">
+        <v>0.90207999999999999</v>
+      </c>
+      <c r="N11">
+        <v>0.89029999999999998</v>
+      </c>
+      <c r="O11">
+        <v>0.91181999999999996</v>
+      </c>
+      <c r="P11">
+        <v>0.90968000000000004</v>
+      </c>
+      <c r="Q11">
+        <v>0.90415999999999996</v>
+      </c>
+      <c r="R11">
+        <v>0.91178000000000003</v>
+      </c>
+      <c r="S11">
         <v>0.91220000000000001</v>
       </c>
-      <c r="C4">
-        <v>0.89694000000000007</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5">
-        <v>0.89898</v>
-      </c>
-      <c r="B5">
-        <v>0.91171999999999997</v>
-      </c>
-      <c r="C5">
-        <v>0.90534999999999999</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A6">
-        <v>0.91374</v>
-      </c>
-      <c r="B6">
-        <v>0.90495999999999999</v>
-      </c>
-      <c r="C6">
-        <v>0.90934999999999999</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A7">
-        <v>0.90342</v>
-      </c>
-      <c r="B7">
-        <v>0.90995999999999999</v>
-      </c>
-      <c r="C7">
-        <v>0.90669</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A8">
-        <v>0.90558000000000005</v>
-      </c>
-      <c r="B8">
-        <v>0.90083999999999997</v>
-      </c>
-      <c r="C8">
-        <v>0.90321000000000007</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A9">
-        <v>0.91490000000000005</v>
-      </c>
-      <c r="B9">
+      <c r="T11">
+        <v>0.89873999999999998</v>
+      </c>
+      <c r="U11">
+        <v>0.91627999999999998</v>
+      </c>
+      <c r="V11">
+        <v>0.89805999999999997</v>
+      </c>
+      <c r="W11">
+        <v>0.89922000000000002</v>
+      </c>
+      <c r="X11">
+        <v>0.89756000000000002</v>
+      </c>
+      <c r="Y11">
+        <v>0.91286</v>
+      </c>
+      <c r="Z11">
+        <v>0.90871999999999997</v>
+      </c>
+      <c r="AA11">
+        <v>0.90378000000000003</v>
+      </c>
+      <c r="AB11">
+        <v>0.89822000000000002</v>
+      </c>
+      <c r="AC11">
+        <v>0.90742</v>
+      </c>
+      <c r="AD11">
         <v>0.90149999999999997</v>
       </c>
-      <c r="C9">
-        <v>0.90820000000000001</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A10">
-        <v>0.90444000000000002</v>
-      </c>
-      <c r="B10">
+      <c r="AE11">
+        <v>0.90786</v>
+      </c>
+      <c r="AF11">
+        <v>0.90724000000000005</v>
+      </c>
+      <c r="AG11">
+        <v>0.90249999999999997</v>
+      </c>
+      <c r="AH11">
+        <v>0.91073999999999999</v>
+      </c>
+      <c r="AI11">
+        <v>0.90858000000000005</v>
+      </c>
+      <c r="AJ11">
+        <v>0.90246000000000004</v>
+      </c>
+      <c r="AK11">
+        <v>0.90769999999999995</v>
+      </c>
+      <c r="AL11">
+        <v>0.90759999999999996</v>
+      </c>
+      <c r="AM11">
+        <v>0.90546000000000004</v>
+      </c>
+      <c r="AN11">
+        <v>0.89327999999999996</v>
+      </c>
+      <c r="AO11">
+        <v>0.89392000000000005</v>
+      </c>
+      <c r="AP11">
+        <v>0.90222000000000002</v>
+      </c>
+      <c r="AQ11">
+        <v>0.89456000000000002</v>
+      </c>
+      <c r="AR11">
+        <v>0.90786</v>
+      </c>
+      <c r="AS11">
+        <v>0.90154000000000001</v>
+      </c>
+      <c r="AT11">
+        <v>0.90466000000000002</v>
+      </c>
+      <c r="AU11">
+        <v>0.92698000000000003</v>
+      </c>
+      <c r="AV11">
+        <v>0.91869999999999996</v>
+      </c>
+      <c r="AW11">
+        <v>0.91266000000000003</v>
+      </c>
+      <c r="AX11">
+        <v>0.89671999999999996</v>
+      </c>
+      <c r="AY11">
+        <v>0.88966000000000001</v>
+      </c>
+      <c r="AZ11">
+        <v>0.93371999999999999</v>
+      </c>
+      <c r="BA11">
+        <v>0.90146000000000004</v>
+      </c>
+      <c r="BB11">
+        <v>0.91010000000000002</v>
+      </c>
+      <c r="BC11">
+        <v>0.89702000000000004</v>
+      </c>
+      <c r="BD11">
+        <v>0.90185999999999999</v>
+      </c>
+      <c r="BE11">
+        <v>0.90780000000000005</v>
+      </c>
+      <c r="BF11">
         <v>0.90900000000000003</v>
       </c>
-      <c r="C10">
-        <v>0.90671999999999997</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A11">
-        <v>0.91564000000000001</v>
-      </c>
-      <c r="B11">
-        <v>0.90395999999999999</v>
-      </c>
-      <c r="C11">
-        <v>0.90979999999999994</v>
+      <c r="BG11">
+        <v>0.90866000000000002</v>
+      </c>
+      <c r="BH11">
+        <v>0.90698000000000001</v>
+      </c>
+      <c r="BI11">
+        <v>0.90466000000000002</v>
+      </c>
+      <c r="BJ11">
+        <v>0.91100000000000003</v>
+      </c>
+      <c r="BK11">
+        <v>0.89798</v>
+      </c>
+      <c r="BL11">
+        <v>0.91235999999999995</v>
+      </c>
+      <c r="BM11">
+        <v>0.91934000000000005</v>
+      </c>
+      <c r="BN11">
+        <v>0.89473999999999998</v>
+      </c>
+      <c r="BO11">
+        <v>0.90742</v>
+      </c>
+      <c r="BP11">
+        <v>0.88868000000000003</v>
+      </c>
+      <c r="BQ11">
+        <v>0.90144000000000002</v>
+      </c>
+      <c r="BR11">
+        <v>0.91195999999999999</v>
+      </c>
+      <c r="BS11">
+        <v>0.90264</v>
+      </c>
+      <c r="BT11">
+        <v>0.89439999999999997</v>
+      </c>
+      <c r="BU11">
+        <v>0.89032</v>
+      </c>
+      <c r="BV11">
+        <v>0.90839999999999999</v>
+      </c>
+      <c r="BW11">
+        <v>0.90525999999999995</v>
+      </c>
+      <c r="BX11">
+        <v>0.92010000000000003</v>
+      </c>
+      <c r="BY11">
+        <v>0.90812000000000004</v>
+      </c>
+      <c r="BZ11">
+        <v>0.90776000000000001</v>
+      </c>
+      <c r="CA11">
+        <v>0.91876000000000002</v>
+      </c>
+      <c r="CB11">
+        <v>0.90393999999999997</v>
+      </c>
+      <c r="CC11">
+        <v>0.89725999999999995</v>
+      </c>
+      <c r="CD11">
+        <v>0.90391999999999995</v>
+      </c>
+      <c r="CE11">
+        <v>0.90256000000000003</v>
+      </c>
+      <c r="CF11">
+        <v>0.90578000000000003</v>
+      </c>
+      <c r="CG11">
+        <v>0.90407999999999999</v>
+      </c>
+      <c r="CH11">
+        <v>0.89871999999999996</v>
+      </c>
+      <c r="CI11">
+        <v>0.91481999999999997</v>
+      </c>
+      <c r="CJ11">
+        <v>0.90490000000000004</v>
+      </c>
+      <c r="CK11">
+        <v>0.91957999999999995</v>
+      </c>
+      <c r="CL11">
+        <v>0.91666000000000003</v>
+      </c>
+      <c r="CM11">
+        <v>0.91779999999999995</v>
+      </c>
+      <c r="CN11">
+        <v>0.91359999999999997</v>
+      </c>
+      <c r="CO11">
+        <v>0.91459999999999997</v>
+      </c>
+      <c r="CP11">
+        <v>0.90654000000000001</v>
+      </c>
+      <c r="CQ11">
+        <v>0.90544000000000002</v>
+      </c>
+      <c r="CR11">
+        <v>0.92396</v>
+      </c>
+      <c r="CS11">
+        <v>0.91393999999999997</v>
+      </c>
+      <c r="CT11">
+        <v>0.92634000000000005</v>
+      </c>
+      <c r="CU11">
+        <v>0.90254000000000001</v>
+      </c>
+      <c r="CV11">
+        <v>0.91654000000000002</v>
+      </c>
+      <c r="CW11">
+        <v>0.90680469999999969</v>
       </c>
     </row>
   </sheetData>
